--- a/Assets/Datasets/CIAWorldFactbook2013.xlsx
+++ b/Assets/Datasets/CIAWorldFactbook2013.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/howarder/Documents/ST_437_Data_Viz/Assets/Datasets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2927CFCC-9FCD-4044-86CA-0E7EB374B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="1760" yWindow="760" windowWidth="27640" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="document" sheetId="4" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="299">
   <si>
     <t>China</t>
   </si>
@@ -893,16 +899,7 @@
     <t>Health Expenditure as Pct of GDP all from 2010</t>
   </si>
   <si>
-    <t>child underwight year</t>
-  </si>
-  <si>
     <t>ChildUnderwt</t>
-  </si>
-  <si>
-    <t>ChildUnderwtYr</t>
-  </si>
-  <si>
-    <t>GDP PPP</t>
   </si>
   <si>
     <t>Population through child underweight retrieved around July 18, 2013</t>
@@ -926,7 +923,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
@@ -965,23 +962,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="1"/>
+    <cellStyle name="ANCLAS,REZONES Y SUS PARTES,DE FUNDICION,DE HIERRO O DE ACERO" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -990,14 +983,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1035,7 +1031,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1107,7 +1103,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1280,103 +1276,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
     </row>
   </sheetData>
@@ -1385,23 +1381,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R281"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P281"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>273</v>
       </c>
@@ -1442,16 +1437,10 @@
         <v>285</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>274</v>
       </c>
@@ -1489,22 +1478,16 @@
         <v>290</v>
       </c>
       <c r="N2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O2" t="s">
-        <v>294</v>
-      </c>
-      <c r="P2" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="Q2" t="s">
-        <v>298</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1547,20 +1530,14 @@
       <c r="N3">
         <v>32.9</v>
       </c>
-      <c r="O3">
-        <v>2004</v>
-      </c>
-      <c r="P3" s="3">
-        <v>34290000000</v>
-      </c>
-      <c r="Q3" s="5">
+      <c r="O3" s="4">
         <v>1100</v>
       </c>
-      <c r="R3" s="7">
+      <c r="P3" s="5">
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -1603,20 +1580,14 @@
       <c r="N4">
         <v>6.3</v>
       </c>
-      <c r="O4">
-        <v>2009</v>
-      </c>
-      <c r="P4" s="3">
-        <v>26540000000</v>
-      </c>
-      <c r="Q4" s="5">
+      <c r="O4" s="4">
         <v>8200</v>
       </c>
-      <c r="R4" s="8">
+      <c r="P4" s="6">
         <v>0.52</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1659,20 +1630,14 @@
       <c r="N5">
         <v>3.7</v>
       </c>
-      <c r="O5">
-        <v>2005</v>
-      </c>
-      <c r="P5" s="3">
-        <v>277400000000</v>
-      </c>
-      <c r="Q5" s="5">
+      <c r="O5" s="4">
         <v>7600</v>
       </c>
-      <c r="R5" s="8">
+      <c r="P5" s="6">
         <v>0.73</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>205</v>
       </c>
@@ -1706,17 +1671,14 @@
       <c r="L6">
         <v>74.599999999999994</v>
       </c>
-      <c r="P6" s="3">
-        <v>575300000</v>
-      </c>
-      <c r="Q6" s="5">
+      <c r="O6" s="4">
         <v>8000</v>
       </c>
-      <c r="R6" s="8">
+      <c r="P6" s="6">
         <v>0.93</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>199</v>
       </c>
@@ -1753,17 +1715,14 @@
       <c r="M7">
         <v>7.5</v>
       </c>
-      <c r="P7" s="3">
-        <v>3163000000</v>
-      </c>
-      <c r="Q7" s="5">
+      <c r="O7" s="4">
         <v>37200</v>
       </c>
-      <c r="R7" s="8">
+      <c r="P7" s="6">
         <v>0.88</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1806,20 +1765,14 @@
       <c r="N8">
         <v>15.6</v>
       </c>
-      <c r="O8">
-        <v>2007</v>
-      </c>
-      <c r="P8" s="3">
-        <v>130400000000</v>
-      </c>
-      <c r="Q8" s="5">
+      <c r="O8" s="4">
         <v>6500</v>
       </c>
-      <c r="R8" s="7">
+      <c r="P8" s="5">
         <v>0.59199999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>219</v>
       </c>
@@ -1850,17 +1803,14 @@
       <c r="K9">
         <v>1.75</v>
       </c>
-      <c r="P9" s="3">
-        <v>175400000</v>
-      </c>
-      <c r="Q9" s="5">
+      <c r="O9" s="4">
         <v>12200</v>
       </c>
-      <c r="R9" s="8">
+      <c r="P9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -1897,17 +1847,14 @@
       <c r="M10">
         <v>6</v>
       </c>
-      <c r="P10" s="3">
-        <v>1605000000</v>
-      </c>
-      <c r="Q10" s="5">
+      <c r="O10" s="4">
         <v>18300</v>
       </c>
-      <c r="R10" s="8">
+      <c r="P10" s="6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1950,20 +1897,14 @@
       <c r="N11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O11">
-        <v>2005</v>
-      </c>
-      <c r="P11" s="3">
-        <v>755300000000</v>
-      </c>
-      <c r="Q11" s="5">
+      <c r="O11" s="4">
         <v>18400</v>
       </c>
-      <c r="R11" s="8">
+      <c r="P11" s="6">
         <v>0.92</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -2006,20 +1947,14 @@
       <c r="N12">
         <v>5.3</v>
       </c>
-      <c r="O12">
-        <v>2010</v>
-      </c>
-      <c r="P12" s="3">
-        <v>19970000000</v>
-      </c>
-      <c r="Q12" s="5">
+      <c r="O12" s="4">
         <v>5900</v>
       </c>
-      <c r="R12" s="7">
+      <c r="P12" s="5">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>189</v>
       </c>
@@ -2050,17 +1985,14 @@
       <c r="K13">
         <v>1.84</v>
       </c>
-      <c r="P13" s="3">
-        <v>2516000000</v>
-      </c>
-      <c r="Q13" s="5">
+      <c r="O13" s="4">
         <v>25300</v>
       </c>
-      <c r="R13" s="8">
+      <c r="P13" s="6">
         <v>0.47</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2100,17 +2032,14 @@
       <c r="M14">
         <v>8.6999999999999993</v>
       </c>
-      <c r="P14" s="3">
-        <v>986700000000</v>
-      </c>
-      <c r="Q14" s="5">
+      <c r="O14" s="4">
         <v>43300</v>
       </c>
-      <c r="R14" s="8">
+      <c r="P14" s="6">
         <v>0.89</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -2150,17 +2079,14 @@
       <c r="M15">
         <v>11</v>
       </c>
-      <c r="P15" s="3">
-        <v>364900000000</v>
-      </c>
-      <c r="Q15" s="5">
+      <c r="O15" s="4">
         <v>43100</v>
       </c>
-      <c r="R15" s="8">
+      <c r="P15" s="6">
         <v>0.68</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -2203,20 +2129,14 @@
       <c r="N16">
         <v>8.4</v>
       </c>
-      <c r="O16">
-        <v>2006</v>
-      </c>
-      <c r="P16" s="3">
-        <v>98360000000</v>
-      </c>
-      <c r="Q16" s="5">
+      <c r="O16" s="4">
         <v>10700</v>
       </c>
-      <c r="R16" s="7">
+      <c r="P16" s="5">
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>177</v>
       </c>
@@ -2256,17 +2176,14 @@
       <c r="M17">
         <v>7.9</v>
       </c>
-      <c r="P17" s="3">
-        <v>11240000000</v>
-      </c>
-      <c r="Q17" s="5">
+      <c r="O17" s="4">
         <v>31900</v>
       </c>
-      <c r="R17" s="8">
+      <c r="P17" s="6">
         <v>0.84</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -2306,17 +2223,14 @@
       <c r="M18">
         <v>5</v>
       </c>
-      <c r="P18" s="3">
-        <v>33630000000</v>
-      </c>
-      <c r="Q18" s="5">
+      <c r="O18" s="4">
         <v>29200</v>
       </c>
-      <c r="R18" s="7">
+      <c r="P18" s="5">
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2359,20 +2273,14 @@
       <c r="N19">
         <v>41.3</v>
       </c>
-      <c r="O19">
-        <v>2007</v>
-      </c>
-      <c r="P19" s="3">
-        <v>311000000000</v>
-      </c>
-      <c r="Q19" s="5">
+      <c r="O19" s="4">
         <v>2100</v>
       </c>
-      <c r="R19" s="7">
+      <c r="P19" s="5">
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>179</v>
       </c>
@@ -2412,17 +2320,14 @@
       <c r="M20">
         <v>8</v>
       </c>
-      <c r="P20" s="3">
-        <v>7169000000</v>
-      </c>
-      <c r="Q20" s="5">
+      <c r="O20" s="4">
         <v>25800</v>
       </c>
-      <c r="R20" s="8">
+      <c r="P20" s="6">
         <v>0.44</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -2465,20 +2370,14 @@
       <c r="N21">
         <v>1.3</v>
       </c>
-      <c r="O21">
-        <v>2005</v>
-      </c>
-      <c r="P21" s="3">
-        <v>149200000000</v>
-      </c>
-      <c r="Q21" s="5">
+      <c r="O21" s="4">
         <v>15900</v>
       </c>
-      <c r="R21" s="8">
+      <c r="P21" s="6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -2518,17 +2417,14 @@
       <c r="M22">
         <v>10.7</v>
       </c>
-      <c r="P22" s="3">
-        <v>427200000000</v>
-      </c>
-      <c r="Q22" s="5">
+      <c r="O22" s="4">
         <v>38500</v>
       </c>
-      <c r="R22" s="8">
+      <c r="P22" s="6">
         <v>0.97</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>176</v>
       </c>
@@ -2571,20 +2467,14 @@
       <c r="N23">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O23">
-        <v>2006</v>
-      </c>
-      <c r="P23" s="3">
-        <v>3048000000</v>
-      </c>
-      <c r="Q23" s="5">
+      <c r="O23" s="4">
         <v>8900</v>
       </c>
-      <c r="R23" s="8">
+      <c r="P23" s="6">
         <v>0.52</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -2627,20 +2517,14 @@
       <c r="N24">
         <v>20.2</v>
       </c>
-      <c r="O24">
-        <v>2006</v>
-      </c>
-      <c r="P24" s="3">
-        <v>15840000000</v>
-      </c>
-      <c r="Q24" s="5">
+      <c r="O24" s="4">
         <v>1700</v>
       </c>
-      <c r="R24" s="7">
+      <c r="P24" s="5">
         <v>0.44900000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>202</v>
       </c>
@@ -2671,17 +2555,14 @@
       <c r="K25">
         <v>1.96</v>
       </c>
-      <c r="P25" s="3">
-        <v>5600000000</v>
-      </c>
-      <c r="Q25" s="5">
+      <c r="O25" s="4">
         <v>86000</v>
       </c>
-      <c r="R25" s="8">
+      <c r="P25" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>164</v>
       </c>
@@ -2724,20 +2605,14 @@
       <c r="N26">
         <v>12.7</v>
       </c>
-      <c r="O26">
-        <v>2010</v>
-      </c>
-      <c r="P26" s="3">
-        <v>5036000000</v>
-      </c>
-      <c r="Q26" s="5">
+      <c r="O26" s="4">
         <v>6800</v>
       </c>
-      <c r="R26" s="7">
+      <c r="P26" s="5">
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -2780,20 +2655,14 @@
       <c r="N27">
         <v>4.5</v>
       </c>
-      <c r="O27">
-        <v>2008</v>
-      </c>
-      <c r="P27" s="3">
-        <v>56140000000</v>
-      </c>
-      <c r="Q27" s="5">
+      <c r="O27" s="4">
         <v>5200</v>
       </c>
-      <c r="R27" s="8">
+      <c r="P27" s="6">
         <v>0.67</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -2836,20 +2705,14 @@
       <c r="N28">
         <v>1.6</v>
       </c>
-      <c r="O28">
-        <v>2006</v>
-      </c>
-      <c r="P28" s="3">
-        <v>32430000000</v>
-      </c>
-      <c r="Q28" s="5">
+      <c r="O28" s="4">
         <v>8400</v>
       </c>
-      <c r="R28" s="8">
+      <c r="P28" s="6">
         <v>0.49</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -2892,20 +2755,14 @@
       <c r="N29">
         <v>11.2</v>
       </c>
-      <c r="O29">
-        <v>2008</v>
-      </c>
-      <c r="P29" s="3">
-        <v>32060000000</v>
-      </c>
-      <c r="Q29" s="5">
+      <c r="O29" s="4">
         <v>17100</v>
       </c>
-      <c r="R29" s="7">
+      <c r="P29" s="5">
         <v>0.61699999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2948,20 +2805,14 @@
       <c r="N30">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O30">
-        <v>2007</v>
-      </c>
-      <c r="P30" s="3">
-        <v>2394000000000</v>
-      </c>
-      <c r="Q30" s="5">
+      <c r="O30" s="4">
         <v>12100</v>
       </c>
-      <c r="R30" s="8">
+      <c r="P30" s="6">
         <v>0.87</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>214</v>
       </c>
@@ -2992,17 +2843,14 @@
       <c r="K31">
         <v>1.24</v>
       </c>
-      <c r="P31" s="3">
-        <v>500000000</v>
-      </c>
-      <c r="Q31" s="5">
+      <c r="O31" s="4">
         <v>42300</v>
       </c>
-      <c r="R31" s="8">
+      <c r="P31" s="6">
         <v>0.41</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>173</v>
       </c>
@@ -3042,17 +2890,14 @@
       <c r="M32">
         <v>2.8</v>
       </c>
-      <c r="P32" s="3">
-        <v>22040000000</v>
-      </c>
-      <c r="Q32" s="5">
+      <c r="O32" s="4">
         <v>55300</v>
       </c>
-      <c r="R32" s="8">
+      <c r="P32" s="6">
         <v>0.76</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -3095,20 +2940,14 @@
       <c r="N33">
         <v>1.6</v>
       </c>
-      <c r="O33">
-        <v>2004</v>
-      </c>
-      <c r="P33" s="3">
-        <v>105500000000</v>
-      </c>
-      <c r="Q33" s="5">
+      <c r="O33" s="4">
         <v>14500</v>
       </c>
-      <c r="R33" s="7">
+      <c r="P33" s="5">
         <v>0.73099999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -3151,20 +2990,14 @@
       <c r="N34">
         <v>26</v>
       </c>
-      <c r="O34">
-        <v>2009</v>
-      </c>
-      <c r="P34" s="3">
-        <v>24690000000</v>
-      </c>
-      <c r="Q34" s="5">
+      <c r="O34" s="4">
         <v>1400</v>
       </c>
-      <c r="R34" s="7">
+      <c r="P34" s="5">
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -3207,20 +3040,14 @@
       <c r="N35">
         <v>22.6</v>
       </c>
-      <c r="O35">
-        <v>2010</v>
-      </c>
-      <c r="P35" s="3">
-        <v>90930000000</v>
-      </c>
-      <c r="Q35" s="5">
+      <c r="O35" s="4">
         <v>1400</v>
       </c>
-      <c r="R35" s="7">
+      <c r="P35" s="5">
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -3263,20 +3090,14 @@
       <c r="N36">
         <v>35.200000000000003</v>
       </c>
-      <c r="O36">
-        <v>2005</v>
-      </c>
-      <c r="P36" s="3">
-        <v>5578000000</v>
-      </c>
-      <c r="Q36" s="5">
+      <c r="O36" s="4">
         <v>600</v>
       </c>
-      <c r="R36" s="7">
+      <c r="P36" s="5">
         <v>0.109</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -3319,20 +3140,14 @@
       <c r="N37">
         <v>29</v>
       </c>
-      <c r="O37">
-        <v>2011</v>
-      </c>
-      <c r="P37" s="3">
-        <v>37250000000</v>
-      </c>
-      <c r="Q37" s="5">
+      <c r="O37" s="4">
         <v>2400</v>
       </c>
-      <c r="R37" s="8">
+      <c r="P37" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -3375,20 +3190,14 @@
       <c r="N38">
         <v>16.600000000000001</v>
       </c>
-      <c r="O38">
-        <v>2006</v>
-      </c>
-      <c r="P38" s="3">
-        <v>51610000000</v>
-      </c>
-      <c r="Q38" s="5">
+      <c r="O38" s="4">
         <v>2400</v>
       </c>
-      <c r="R38" s="7">
+      <c r="P38" s="5">
         <v>0.52100000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -3428,17 +3237,14 @@
       <c r="M39">
         <v>11.3</v>
       </c>
-      <c r="P39" s="3">
-        <v>1513000000000</v>
-      </c>
-      <c r="Q39" s="5">
+      <c r="O39" s="4">
         <v>43400</v>
       </c>
-      <c r="R39" s="8">
+      <c r="P39" s="6">
         <v>0.81</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>171</v>
       </c>
@@ -3478,17 +3284,14 @@
       <c r="M40">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P40" s="3">
-        <v>2214000000</v>
-      </c>
-      <c r="Q40" s="5">
+      <c r="O40" s="4">
         <v>4200</v>
       </c>
-      <c r="R40" s="7">
+      <c r="P40" s="5">
         <v>0.626</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>206</v>
       </c>
@@ -3519,17 +3322,14 @@
       <c r="K41">
         <v>1.86</v>
       </c>
-      <c r="P41" s="3">
-        <v>2250000000</v>
-      </c>
-      <c r="Q41" s="5">
+      <c r="O41" s="4">
         <v>43800</v>
       </c>
-      <c r="R41" s="8">
+      <c r="P41" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -3572,20 +3372,14 @@
       <c r="N42">
         <v>28</v>
       </c>
-      <c r="O42">
-        <v>2006</v>
-      </c>
-      <c r="P42" s="3">
-        <v>3955000000</v>
-      </c>
-      <c r="Q42" s="5">
+      <c r="O42" s="4">
         <v>800</v>
       </c>
-      <c r="R42" s="7">
+      <c r="P42" s="5">
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -3628,20 +3422,14 @@
       <c r="N43">
         <v>33.9</v>
       </c>
-      <c r="O43">
-        <v>2004</v>
-      </c>
-      <c r="P43" s="3">
-        <v>21000000000</v>
-      </c>
-      <c r="Q43" s="5">
+      <c r="O43" s="4">
         <v>2000</v>
       </c>
-      <c r="R43" s="7">
+      <c r="P43" s="5">
         <v>0.218</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>61</v>
       </c>
@@ -3684,20 +3472,14 @@
       <c r="N44">
         <v>0.5</v>
       </c>
-      <c r="O44">
-        <v>2008</v>
-      </c>
-      <c r="P44" s="3">
-        <v>325800000000</v>
-      </c>
-      <c r="Q44" s="5">
+      <c r="O44" s="4">
         <v>18700</v>
       </c>
-      <c r="R44" s="8">
+      <c r="P44" s="6">
         <v>0.89</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -3740,20 +3522,14 @@
       <c r="N45">
         <v>3.4</v>
       </c>
-      <c r="O45">
-        <v>2010</v>
-      </c>
-      <c r="P45" s="3">
-        <v>12610000000000</v>
-      </c>
-      <c r="Q45" s="5">
+      <c r="O45" s="4">
         <v>9300</v>
       </c>
-      <c r="R45" s="7">
+      <c r="P45" s="5">
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -3796,20 +3572,14 @@
       <c r="N46">
         <v>3.4</v>
       </c>
-      <c r="O46">
-        <v>2010</v>
-      </c>
-      <c r="P46" s="3">
-        <v>511100000000</v>
-      </c>
-      <c r="Q46" s="5">
+      <c r="O46" s="4">
         <v>11000</v>
       </c>
-      <c r="R46" s="8">
+      <c r="P46" s="6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>162</v>
       </c>
@@ -3852,20 +3622,14 @@
       <c r="N47">
         <v>25</v>
       </c>
-      <c r="O47">
-        <v>2000</v>
-      </c>
-      <c r="P47" s="3">
-        <v>887400000</v>
-      </c>
-      <c r="Q47" s="5">
+      <c r="O47" s="4">
         <v>1300</v>
       </c>
-      <c r="R47" s="8">
+      <c r="P47" s="6">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -3908,20 +3672,14 @@
       <c r="N48">
         <v>28.2</v>
       </c>
-      <c r="O48">
-        <v>2007</v>
-      </c>
-      <c r="P48" s="3">
-        <v>28030000000</v>
-      </c>
-      <c r="Q48" s="5">
+      <c r="O48" s="4">
         <v>400</v>
       </c>
-      <c r="R48" s="7">
+      <c r="P48" s="5">
         <v>0.34300000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -3964,20 +3722,14 @@
       <c r="N49">
         <v>11.8</v>
       </c>
-      <c r="O49">
-        <v>2005</v>
-      </c>
-      <c r="P49" s="3">
-        <v>19410000000</v>
-      </c>
-      <c r="Q49" s="5">
+      <c r="O49" s="4">
         <v>4700</v>
       </c>
-      <c r="R49" s="7">
+      <c r="P49" s="5">
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>224</v>
       </c>
@@ -4011,17 +3763,14 @@
       <c r="M50">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P50" s="3">
-        <v>183200000</v>
-      </c>
-      <c r="Q50" s="5">
+      <c r="O50" s="4">
         <v>9100</v>
       </c>
-      <c r="R50" s="8">
+      <c r="P50" s="6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>120</v>
       </c>
@@ -4064,20 +3813,14 @@
       <c r="N51">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O51">
-        <v>2009</v>
-      </c>
-      <c r="P51" s="3">
-        <v>59790000000</v>
-      </c>
-      <c r="Q51" s="5">
+      <c r="O51" s="4">
         <v>12800</v>
       </c>
-      <c r="R51" s="8">
+      <c r="P51" s="6">
         <v>0.64</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -4120,20 +3863,14 @@
       <c r="N52">
         <v>29.4</v>
       </c>
-      <c r="O52">
-        <v>2007</v>
-      </c>
-      <c r="P52" s="3">
-        <v>41010000000</v>
-      </c>
-      <c r="Q52" s="5">
+      <c r="O52" s="4">
         <v>1800</v>
       </c>
-      <c r="R52" s="7">
+      <c r="P52" s="5">
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>123</v>
       </c>
@@ -4173,17 +3910,14 @@
       <c r="M53">
         <v>7.8</v>
       </c>
-      <c r="P53" s="3">
-        <v>79690000000</v>
-      </c>
-      <c r="Q53" s="5">
+      <c r="O53" s="4">
         <v>18100</v>
       </c>
-      <c r="R53" s="8">
+      <c r="P53" s="6">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -4226,20 +3960,14 @@
       <c r="N54">
         <v>3.4</v>
       </c>
-      <c r="O54">
-        <v>2000</v>
-      </c>
-      <c r="P54" s="3">
-        <v>121000000000</v>
-      </c>
-      <c r="Q54" s="5">
+      <c r="O54" s="4">
         <v>10200</v>
       </c>
-      <c r="R54" s="8">
+      <c r="P54" s="6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>187</v>
       </c>
@@ -4258,14 +3986,11 @@
       <c r="K55">
         <v>2.09</v>
       </c>
-      <c r="P55" s="3">
-        <v>2838000000</v>
-      </c>
-      <c r="Q55" s="5">
+      <c r="O55" s="4">
         <v>15000</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>159</v>
       </c>
@@ -4305,17 +4030,14 @@
       <c r="M56">
         <v>6</v>
       </c>
-      <c r="P56" s="3">
-        <v>24000000000</v>
-      </c>
-      <c r="Q56" s="5">
+      <c r="O56" s="4">
         <v>27500</v>
       </c>
-      <c r="R56" s="7">
+      <c r="P56" s="5">
         <v>0.70499999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -4358,20 +4080,14 @@
       <c r="N57">
         <v>2</v>
       </c>
-      <c r="O57">
-        <v>2007</v>
-      </c>
-      <c r="P57" s="3">
-        <v>291700000000</v>
-      </c>
-      <c r="Q57" s="5">
+      <c r="O57" s="4">
         <v>27600</v>
       </c>
-      <c r="R57" s="7">
+      <c r="P57" s="5">
         <v>0.73399999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>110</v>
       </c>
@@ -4411,17 +4127,14 @@
       <c r="M58">
         <v>11.4</v>
       </c>
-      <c r="P58" s="3">
-        <v>213600000000</v>
-      </c>
-      <c r="Q58" s="5">
+      <c r="O58" s="4">
         <v>38300</v>
       </c>
-      <c r="R58" s="7">
+      <c r="P58" s="5">
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>161</v>
       </c>
@@ -4464,20 +4177,14 @@
       <c r="N59">
         <v>29.6</v>
       </c>
-      <c r="O59">
-        <v>2006</v>
-      </c>
-      <c r="P59" s="3">
-        <v>2418000000</v>
-      </c>
-      <c r="Q59" s="5">
+      <c r="O59" s="4">
         <v>2700</v>
       </c>
-      <c r="R59" s="7">
+      <c r="P59" s="5">
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>200</v>
       </c>
@@ -4514,17 +4221,14 @@
       <c r="M60">
         <v>7.4</v>
       </c>
-      <c r="P60" s="3">
-        <v>1018000000</v>
-      </c>
-      <c r="Q60" s="5">
+      <c r="O60" s="4">
         <v>14400</v>
       </c>
-      <c r="R60" s="8">
+      <c r="P60" s="6">
         <v>0.67</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -4567,20 +4271,14 @@
       <c r="N61">
         <v>3.4</v>
       </c>
-      <c r="O61">
-        <v>2007</v>
-      </c>
-      <c r="P61" s="3">
-        <v>100400000000</v>
-      </c>
-      <c r="Q61" s="5">
+      <c r="O61" s="4">
         <v>9800</v>
       </c>
-      <c r="R61" s="8">
+      <c r="P61" s="6">
         <v>0.69</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -4623,20 +4321,14 @@
       <c r="N62">
         <v>6.2</v>
       </c>
-      <c r="O62">
-        <v>2004</v>
-      </c>
-      <c r="P62" s="3">
-        <v>155800000000</v>
-      </c>
-      <c r="Q62" s="5">
+      <c r="O62" s="4">
         <v>10200</v>
       </c>
-      <c r="R62" s="8">
+      <c r="P62" s="6">
         <v>0.67</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -4679,20 +4371,14 @@
       <c r="N63">
         <v>6.8</v>
       </c>
-      <c r="O63">
-        <v>2008</v>
-      </c>
-      <c r="P63" s="3">
-        <v>548800000000</v>
-      </c>
-      <c r="Q63" s="5">
+      <c r="O63" s="4">
         <v>6700</v>
       </c>
-      <c r="R63" s="7">
+      <c r="P63" s="5">
         <v>0.435</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -4735,20 +4421,14 @@
       <c r="N64">
         <v>6.6</v>
       </c>
-      <c r="O64">
-        <v>2008</v>
-      </c>
-      <c r="P64" s="3">
-        <v>47090000000</v>
-      </c>
-      <c r="Q64" s="5">
+      <c r="O64" s="4">
         <v>7600</v>
       </c>
-      <c r="R64" s="8">
+      <c r="P64" s="6">
         <v>0.64</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>165</v>
       </c>
@@ -4791,20 +4471,14 @@
       <c r="N65">
         <v>10.6</v>
       </c>
-      <c r="O65">
-        <v>2004</v>
-      </c>
-      <c r="P65" s="3">
-        <v>19600000000</v>
-      </c>
-      <c r="Q65" s="5">
+      <c r="O65" s="4">
         <v>26400</v>
       </c>
-      <c r="R65" s="7">
+      <c r="P65" s="5">
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>105</v>
       </c>
@@ -4847,20 +4521,14 @@
       <c r="N66">
         <v>34.5</v>
       </c>
-      <c r="O66">
-        <v>2002</v>
-      </c>
-      <c r="P66" s="3">
-        <v>4468000000</v>
-      </c>
-      <c r="Q66" s="5">
+      <c r="O66" s="4">
         <v>800</v>
       </c>
-      <c r="R66" s="7">
+      <c r="P66" s="5">
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>156</v>
       </c>
@@ -4900,17 +4568,14 @@
       <c r="M67">
         <v>6</v>
       </c>
-      <c r="P67" s="3">
-        <v>29570000000</v>
-      </c>
-      <c r="Q67" s="5">
+      <c r="O67" s="4">
         <v>22100</v>
       </c>
-      <c r="R67" s="7">
+      <c r="P67" s="5">
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -4953,20 +4618,14 @@
       <c r="N68">
         <v>29.2</v>
       </c>
-      <c r="O68">
-        <v>2011</v>
-      </c>
-      <c r="P68" s="3">
-        <v>105000000000</v>
-      </c>
-      <c r="Q68" s="5">
+      <c r="O68" s="4">
         <v>1200</v>
       </c>
-      <c r="R68" s="8">
+      <c r="P68" s="6">
         <v>0.17</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>268</v>
       </c>
@@ -4978,14 +4637,11 @@
       <c r="J69">
         <v>79.900000000000006</v>
       </c>
-      <c r="P69" s="3">
-        <v>15970000000000</v>
-      </c>
-      <c r="Q69" s="5">
+      <c r="O69" s="4">
         <v>35100</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>230</v>
       </c>
@@ -4995,17 +4651,14 @@
       <c r="C70">
         <v>12173</v>
       </c>
-      <c r="P70" s="3">
-        <v>164500000</v>
-      </c>
-      <c r="Q70" s="5">
+      <c r="O70" s="4">
         <v>55400</v>
       </c>
-      <c r="R70" s="8">
+      <c r="P70" s="6">
         <v>0.74</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>209</v>
       </c>
@@ -5036,17 +4689,14 @@
       <c r="K71">
         <v>2.39</v>
       </c>
-      <c r="P71" s="3">
-        <v>1471000000</v>
-      </c>
-      <c r="Q71" s="5">
+      <c r="O71" s="4">
         <v>30500</v>
       </c>
-      <c r="R71" s="8">
+      <c r="P71" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>160</v>
       </c>
@@ -5086,17 +4736,14 @@
       <c r="M72">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P72" s="3">
-        <v>4373000000</v>
-      </c>
-      <c r="Q72" s="5">
+      <c r="O72" s="4">
         <v>4900</v>
       </c>
-      <c r="R72" s="8">
+      <c r="P72" s="6">
         <v>0.52</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -5136,17 +4783,14 @@
       <c r="M73">
         <v>9</v>
       </c>
-      <c r="P73" s="3">
-        <v>200700000000</v>
-      </c>
-      <c r="Q73" s="5">
+      <c r="O73" s="4">
         <v>37000</v>
       </c>
-      <c r="R73" s="8">
+      <c r="P73" s="6">
         <v>0.85</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -5186,17 +4830,14 @@
       <c r="M74">
         <v>11.9</v>
       </c>
-      <c r="P74" s="3">
-        <v>2291000000000</v>
-      </c>
-      <c r="Q74" s="5">
+      <c r="O74" s="4">
         <v>36100</v>
       </c>
-      <c r="R74" s="8">
+      <c r="P74" s="6">
         <v>0.85</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>180</v>
       </c>
@@ -5227,17 +4868,14 @@
       <c r="K75">
         <v>1.97</v>
       </c>
-      <c r="P75" s="3">
-        <v>5650000000</v>
-      </c>
-      <c r="Q75" s="5">
+      <c r="O75" s="4">
         <v>22000</v>
       </c>
-      <c r="R75" s="8">
+      <c r="P75" s="6">
         <v>0.51</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>152</v>
       </c>
@@ -5280,20 +4918,14 @@
       <c r="N76">
         <v>8.8000000000000007</v>
       </c>
-      <c r="O76">
-        <v>2001</v>
-      </c>
-      <c r="P76" s="3">
-        <v>25910000000</v>
-      </c>
-      <c r="Q76" s="5">
+      <c r="O76" s="4">
         <v>16800</v>
       </c>
-      <c r="R76" s="7">
+      <c r="P76" s="5">
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>148</v>
       </c>
@@ -5336,20 +4968,14 @@
       <c r="N77">
         <v>15.8</v>
       </c>
-      <c r="O77">
-        <v>2006</v>
-      </c>
-      <c r="P77" s="3">
-        <v>3459000000</v>
-      </c>
-      <c r="Q77" s="5">
+      <c r="O77" s="4">
         <v>1900</v>
       </c>
-      <c r="R77" s="7">
+      <c r="P77" s="5">
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>150</v>
       </c>
@@ -5383,14 +5009,14 @@
       <c r="K78">
         <v>4.41</v>
       </c>
-      <c r="Q78" t="s">
-        <v>297</v>
-      </c>
-      <c r="R78" s="7">
+      <c r="O78" t="s">
+        <v>294</v>
+      </c>
+      <c r="P78" s="5">
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -5433,20 +5059,14 @@
       <c r="N79">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O79">
-        <v>2009</v>
-      </c>
-      <c r="P79" s="3">
-        <v>27110000000</v>
-      </c>
-      <c r="Q79" s="5">
+      <c r="O79" s="4">
         <v>6000</v>
       </c>
-      <c r="R79" s="7">
+      <c r="P79" s="5">
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -5489,20 +5109,14 @@
       <c r="N80">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O80">
-        <v>2006</v>
-      </c>
-      <c r="P80" s="3">
-        <v>3250000000000</v>
-      </c>
-      <c r="Q80" s="5">
+      <c r="O80" s="4">
         <v>39700</v>
       </c>
-      <c r="R80" s="8">
+      <c r="P80" s="6">
         <v>0.74</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>47</v>
       </c>
@@ -5545,20 +5159,14 @@
       <c r="N81">
         <v>14.3</v>
       </c>
-      <c r="O81">
-        <v>2008</v>
-      </c>
-      <c r="P81" s="3">
-        <v>83740000000</v>
-      </c>
-      <c r="Q81" s="5">
+      <c r="O81" s="4">
         <v>3400</v>
       </c>
-      <c r="R81" s="7">
+      <c r="P81" s="5">
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>217</v>
       </c>
@@ -5589,17 +5197,14 @@
       <c r="K82">
         <v>1.93</v>
       </c>
-      <c r="P82" s="3">
-        <v>1275000000</v>
-      </c>
-      <c r="Q82" s="5">
+      <c r="O82" s="4">
         <v>43000</v>
       </c>
-      <c r="R82" s="8">
+      <c r="P82" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -5639,17 +5244,14 @@
       <c r="M83">
         <v>10.3</v>
       </c>
-      <c r="P83" s="3">
-        <v>281400000000</v>
-      </c>
-      <c r="Q83" s="5">
+      <c r="O83" s="4">
         <v>24900</v>
       </c>
-      <c r="R83" s="8">
+      <c r="P83" s="6">
         <v>0.61</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>204</v>
       </c>
@@ -5680,17 +5282,14 @@
       <c r="K84">
         <v>2.08</v>
       </c>
-      <c r="P84" s="3">
-        <v>2133000000</v>
-      </c>
-      <c r="Q84" s="5">
+      <c r="O84" s="4">
         <v>37400</v>
       </c>
-      <c r="R84" s="8">
+      <c r="P84" s="6">
         <v>0.84</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>188</v>
       </c>
@@ -5730,17 +5329,14 @@
       <c r="M85">
         <v>5.9</v>
       </c>
-      <c r="P85" s="3">
-        <v>1467000000</v>
-      </c>
-      <c r="Q85" s="5">
+      <c r="O85" s="4">
         <v>13900</v>
       </c>
-      <c r="R85" s="8">
+      <c r="P85" s="6">
         <v>0.39</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>186</v>
       </c>
@@ -5771,17 +5367,14 @@
       <c r="K86">
         <v>2.41</v>
       </c>
-      <c r="P86" s="3">
-        <v>4600000000</v>
-      </c>
-      <c r="Q86" s="5">
+      <c r="O86" s="4">
         <v>28700</v>
       </c>
-      <c r="R86" s="8">
+      <c r="P86" s="6">
         <v>0.93</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>68</v>
       </c>
@@ -5824,20 +5417,14 @@
       <c r="N87">
         <v>13</v>
       </c>
-      <c r="O87">
-        <v>2009</v>
-      </c>
-      <c r="P87" s="3">
-        <v>79970000000</v>
-      </c>
-      <c r="Q87" s="5">
+      <c r="O87" s="4">
         <v>5300</v>
       </c>
-      <c r="R87" s="8">
+      <c r="P87" s="6">
         <v>0.49</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>203</v>
       </c>
@@ -5868,17 +5455,14 @@
       <c r="K88">
         <v>1.54</v>
       </c>
-      <c r="P88" s="3">
-        <v>2742000000</v>
-      </c>
-      <c r="Q88" s="5">
+      <c r="O88" s="4">
         <v>44600</v>
       </c>
-      <c r="R88" s="8">
+      <c r="P88" s="6">
         <v>0.31</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>74</v>
       </c>
@@ -5921,20 +5505,14 @@
       <c r="N89">
         <v>20.8</v>
       </c>
-      <c r="O89">
-        <v>2008</v>
-      </c>
-      <c r="P89" s="3">
-        <v>12370000000</v>
-      </c>
-      <c r="Q89" s="5">
+      <c r="O89" s="4">
         <v>1100</v>
       </c>
-      <c r="R89" s="7">
+      <c r="P89" s="5">
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>151</v>
       </c>
@@ -5977,20 +5555,14 @@
       <c r="N90">
         <v>17.2</v>
       </c>
-      <c r="O90">
-        <v>2008</v>
-      </c>
-      <c r="P90" s="3">
-        <v>1963000000</v>
-      </c>
-      <c r="Q90" s="5">
+      <c r="O90" s="4">
         <v>1200</v>
       </c>
-      <c r="R90" s="7">
+      <c r="P90" s="5">
         <v>0.439</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>163</v>
       </c>
@@ -6033,20 +5605,14 @@
       <c r="N91">
         <v>11.1</v>
       </c>
-      <c r="O91">
-        <v>2009</v>
-      </c>
-      <c r="P91" s="3">
-        <v>6256000000</v>
-      </c>
-      <c r="Q91" s="5">
+      <c r="O91" s="4">
         <v>8100</v>
       </c>
-      <c r="R91" s="8">
+      <c r="P91" s="6">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>87</v>
       </c>
@@ -6089,28 +5655,22 @@
       <c r="N92">
         <v>18.899999999999999</v>
       </c>
-      <c r="O92">
-        <v>2006</v>
-      </c>
-      <c r="P92" s="3">
-        <v>13150000000</v>
-      </c>
-      <c r="Q92" s="5">
+      <c r="O92" s="4">
         <v>1300</v>
       </c>
-      <c r="R92" s="8">
+      <c r="P92" s="6">
         <v>0.52</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>236</v>
       </c>
-      <c r="R93" s="8">
+      <c r="P93" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -6153,20 +5713,14 @@
       <c r="N94">
         <v>8.6</v>
       </c>
-      <c r="O94">
-        <v>2006</v>
-      </c>
-      <c r="P94" s="3">
-        <v>38420000000</v>
-      </c>
-      <c r="Q94" s="5">
+      <c r="O94" s="4">
         <v>4700</v>
       </c>
-      <c r="R94" s="8">
+      <c r="P94" s="6">
         <v>0.52</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -6197,17 +5751,14 @@
       <c r="K95">
         <v>1.1100000000000001</v>
       </c>
-      <c r="P95" s="3">
-        <v>375500000000</v>
-      </c>
-      <c r="Q95" s="5">
+      <c r="O95" s="4">
         <v>52300</v>
       </c>
-      <c r="R95" s="8">
+      <c r="P95" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>86</v>
       </c>
@@ -6247,17 +5798,14 @@
       <c r="M96">
         <v>7.3</v>
       </c>
-      <c r="P96" s="3">
-        <v>198800000000</v>
-      </c>
-      <c r="Q96" s="5">
+      <c r="O96" s="4">
         <v>20000</v>
       </c>
-      <c r="R96" s="7">
+      <c r="P96" s="5">
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>178</v>
       </c>
@@ -6297,17 +5845,14 @@
       <c r="M97">
         <v>9.4</v>
       </c>
-      <c r="P97" s="3">
-        <v>13040000000</v>
-      </c>
-      <c r="Q97" s="5">
+      <c r="O97" s="4">
         <v>39900</v>
       </c>
-      <c r="R97" s="8">
+      <c r="P97" s="6">
         <v>0.93</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -6350,20 +5895,14 @@
       <c r="N98">
         <v>43.5</v>
       </c>
-      <c r="O98">
-        <v>2006</v>
-      </c>
-      <c r="P98" s="3">
-        <v>4761000000000</v>
-      </c>
-      <c r="Q98" s="5">
+      <c r="O98" s="4">
         <v>3900</v>
       </c>
-      <c r="R98" s="7">
+      <c r="P98" s="5">
         <v>0.313</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -6406,20 +5945,14 @@
       <c r="N99">
         <v>19.600000000000001</v>
       </c>
-      <c r="O99">
-        <v>2007</v>
-      </c>
-      <c r="P99" s="3">
-        <v>1237000000000</v>
-      </c>
-      <c r="Q99" s="5">
+      <c r="O99" s="4">
         <v>5100</v>
       </c>
-      <c r="R99" s="7">
+      <c r="P99" s="5">
         <v>0.50700000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>17</v>
       </c>
@@ -6462,20 +5995,14 @@
       <c r="N100">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O100">
-        <v>2004</v>
-      </c>
-      <c r="P100" s="3">
-        <v>1016000000000</v>
-      </c>
-      <c r="Q100" s="5">
+      <c r="O100" s="4">
         <v>13300</v>
       </c>
-      <c r="R100" s="7">
+      <c r="P100" s="5">
         <v>0.69099999999999995</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>38</v>
       </c>
@@ -6518,20 +6045,14 @@
       <c r="N101">
         <v>7.1</v>
       </c>
-      <c r="O101">
-        <v>2006</v>
-      </c>
-      <c r="P101" s="3">
-        <v>242500000000</v>
-      </c>
-      <c r="Q101" s="5">
+      <c r="O101" s="4">
         <v>7200</v>
       </c>
-      <c r="R101" s="7">
+      <c r="P101" s="5">
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -6571,17 +6092,14 @@
       <c r="M102">
         <v>9.1999999999999993</v>
       </c>
-      <c r="P102" s="3">
-        <v>195400000000</v>
-      </c>
-      <c r="Q102" s="5">
+      <c r="O102" s="4">
         <v>42600</v>
       </c>
-      <c r="R102" s="8">
+      <c r="P102" s="6">
         <v>0.62</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>198</v>
       </c>
@@ -6612,17 +6130,14 @@
       <c r="K103">
         <v>1.95</v>
       </c>
-      <c r="P103" s="3">
-        <v>4076000000</v>
-      </c>
-      <c r="Q103" s="5">
+      <c r="O103" s="4">
         <v>53800</v>
       </c>
-      <c r="R103" s="8">
+      <c r="P103" s="6">
         <v>0.51</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>96</v>
       </c>
@@ -6662,17 +6177,14 @@
       <c r="M104">
         <v>7.6</v>
       </c>
-      <c r="P104" s="3">
-        <v>252800000000</v>
-      </c>
-      <c r="Q104" s="5">
+      <c r="O104" s="4">
         <v>32800</v>
       </c>
-      <c r="R104" s="7">
+      <c r="P104" s="5">
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>22</v>
       </c>
@@ -6712,17 +6224,14 @@
       <c r="M105">
         <v>9.5</v>
       </c>
-      <c r="P105" s="3">
-        <v>1863000000000</v>
-      </c>
-      <c r="Q105" s="5">
+      <c r="O105" s="4">
         <v>30600</v>
       </c>
-      <c r="R105" s="8">
+      <c r="P105" s="6">
         <v>0.68</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>138</v>
       </c>
@@ -6765,20 +6274,14 @@
       <c r="N106">
         <v>1.9</v>
       </c>
-      <c r="O106">
-        <v>2007</v>
-      </c>
-      <c r="P106" s="3">
-        <v>25620000000</v>
-      </c>
-      <c r="Q106" s="5">
+      <c r="O106" s="4">
         <v>9300</v>
       </c>
-      <c r="R106" s="8">
+      <c r="P106" s="6">
         <v>0.52</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -6818,17 +6321,14 @@
       <c r="M107">
         <v>9.5</v>
       </c>
-      <c r="P107" s="3">
-        <v>4704000000000</v>
-      </c>
-      <c r="Q107" s="5">
+      <c r="O107" s="4">
         <v>36900</v>
       </c>
-      <c r="R107" s="7">
+      <c r="P107" s="5">
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>195</v>
       </c>
@@ -6859,17 +6359,14 @@
       <c r="K108">
         <v>1.66</v>
       </c>
-      <c r="P108" s="3">
-        <v>5100000000</v>
-      </c>
-      <c r="Q108" s="5">
+      <c r="O108" s="4">
         <v>57000</v>
       </c>
-      <c r="R108" s="8">
+      <c r="P108" s="6">
         <v>0.31</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -6912,20 +6409,14 @@
       <c r="N109">
         <v>1.9</v>
       </c>
-      <c r="O109">
-        <v>2009</v>
-      </c>
-      <c r="P109" s="3">
-        <v>39290000000</v>
-      </c>
-      <c r="Q109" s="5">
+      <c r="O109" s="4">
         <v>6100</v>
       </c>
-      <c r="R109" s="7">
+      <c r="P109" s="5">
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>60</v>
       </c>
@@ -6968,20 +6459,14 @@
       <c r="N110">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O110">
-        <v>2006</v>
-      </c>
-      <c r="P110" s="3">
-        <v>235600000000</v>
-      </c>
-      <c r="Q110" s="5">
+      <c r="O110" s="4">
         <v>14100</v>
       </c>
-      <c r="R110" s="7">
+      <c r="P110" s="5">
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>30</v>
       </c>
@@ -7024,20 +6509,14 @@
       <c r="N111">
         <v>16.399999999999999</v>
       </c>
-      <c r="O111">
-        <v>2009</v>
-      </c>
-      <c r="P111" s="3">
-        <v>77140000000</v>
-      </c>
-      <c r="Q111" s="5">
+      <c r="O111" s="4">
         <v>1800</v>
       </c>
-      <c r="R111" s="8">
+      <c r="P111" s="6">
         <v>0.24</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>193</v>
       </c>
@@ -7077,17 +6556,14 @@
       <c r="M112">
         <v>11.3</v>
       </c>
-      <c r="P112" s="3">
-        <v>636300000</v>
-      </c>
-      <c r="Q112" s="5">
+      <c r="O112" s="4">
         <v>6100</v>
       </c>
-      <c r="R112" s="8">
+      <c r="P112" s="6">
         <v>0.44</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>48</v>
       </c>
@@ -7130,20 +6606,14 @@
       <c r="N113">
         <v>20.6</v>
       </c>
-      <c r="O113">
-        <v>2004</v>
-      </c>
-      <c r="P113" s="3">
-        <v>40000000000</v>
-      </c>
-      <c r="Q113" s="5">
+      <c r="O113" s="4">
         <v>1800</v>
       </c>
-      <c r="R113" s="7">
+      <c r="P113" s="5">
         <v>0.60299999999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>24</v>
       </c>
@@ -7183,17 +6653,14 @@
       <c r="M114">
         <v>6.9</v>
       </c>
-      <c r="P114" s="3">
-        <v>1640000000000</v>
-      </c>
-      <c r="Q114" s="5">
+      <c r="O114" s="4">
         <v>32800</v>
       </c>
-      <c r="R114" s="7">
+      <c r="P114" s="5">
         <v>0.83199999999999996</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>149</v>
       </c>
@@ -7203,14 +6670,11 @@
       <c r="C115">
         <v>10887</v>
       </c>
-      <c r="P115" s="3">
-        <v>13590000000</v>
-      </c>
-      <c r="Q115" s="5">
+      <c r="O115" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>139</v>
       </c>
@@ -7253,20 +6717,14 @@
       <c r="N116">
         <v>1.7</v>
       </c>
-      <c r="O116">
-        <v>2009</v>
-      </c>
-      <c r="P116" s="3">
-        <v>153400000000</v>
-      </c>
-      <c r="Q116" s="5">
+      <c r="O116" s="4">
         <v>40500</v>
       </c>
-      <c r="R116" s="7">
+      <c r="P116" s="5">
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>111</v>
       </c>
@@ -7309,20 +6767,14 @@
       <c r="N117">
         <v>2.7</v>
       </c>
-      <c r="O117">
-        <v>2006</v>
-      </c>
-      <c r="P117" s="3">
-        <v>13500000000</v>
-      </c>
-      <c r="Q117" s="5">
+      <c r="O117" s="4">
         <v>2400</v>
       </c>
-      <c r="R117" s="7">
+      <c r="P117" s="5">
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>101</v>
       </c>
@@ -7365,20 +6817,14 @@
       <c r="N118">
         <v>31.6</v>
       </c>
-      <c r="O118">
-        <v>2006</v>
-      </c>
-      <c r="P118" s="3">
-        <v>19520000000</v>
-      </c>
-      <c r="Q118" s="5">
+      <c r="O118" s="4">
         <v>3100</v>
       </c>
-      <c r="R118" s="7">
+      <c r="P118" s="5">
         <v>0.34300000000000003</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>142</v>
       </c>
@@ -7418,17 +6864,14 @@
       <c r="M119">
         <v>6.7</v>
       </c>
-      <c r="P119" s="3">
-        <v>37880000000</v>
-      </c>
-      <c r="Q119" s="5">
+      <c r="O119" s="4">
         <v>18600</v>
       </c>
-      <c r="R119" s="8">
+      <c r="P119" s="6">
         <v>0.68</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>125</v>
       </c>
@@ -7471,20 +6914,14 @@
       <c r="N120">
         <v>4.2</v>
       </c>
-      <c r="O120">
-        <v>2004</v>
-      </c>
-      <c r="P120" s="3">
-        <v>64220000000</v>
-      </c>
-      <c r="Q120" s="5">
+      <c r="O120" s="4">
         <v>16000</v>
       </c>
-      <c r="R120" s="7">
+      <c r="P120" s="5">
         <v>0.872</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>147</v>
       </c>
@@ -7527,20 +6964,14 @@
       <c r="N121">
         <v>13.5</v>
       </c>
-      <c r="O121">
-        <v>2010</v>
-      </c>
-      <c r="P121" s="3">
-        <v>4131000000</v>
-      </c>
-      <c r="Q121" s="5">
+      <c r="O121" s="4">
         <v>2200</v>
       </c>
-      <c r="R121" s="7">
+      <c r="P121" s="5">
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -7583,20 +7014,14 @@
       <c r="N122">
         <v>20.399999999999999</v>
       </c>
-      <c r="O122">
-        <v>2007</v>
-      </c>
-      <c r="P122" s="3">
-        <v>2719000000</v>
-      </c>
-      <c r="Q122" s="5">
+      <c r="O122" s="4">
         <v>700</v>
       </c>
-      <c r="R122" s="7">
+      <c r="P122" s="5">
         <v>0.48199999999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>107</v>
       </c>
@@ -7639,20 +7064,14 @@
       <c r="N123">
         <v>5.6</v>
       </c>
-      <c r="O123">
-        <v>2007</v>
-      </c>
-      <c r="P123" s="3">
-        <v>78630000000</v>
-      </c>
-      <c r="Q123" s="5">
+      <c r="O123" s="4">
         <v>12300</v>
       </c>
-      <c r="R123" s="7">
+      <c r="P123" s="5">
         <v>0.77700000000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>212</v>
       </c>
@@ -7683,17 +7102,14 @@
       <c r="K124">
         <v>1.69</v>
       </c>
-      <c r="P124" s="3">
-        <v>3200000000</v>
-      </c>
-      <c r="Q124" s="5">
+      <c r="O124" s="4">
         <v>89400</v>
       </c>
-      <c r="R124" s="8">
+      <c r="P124" s="6">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -7733,17 +7149,14 @@
       <c r="M125">
         <v>7</v>
       </c>
-      <c r="P125" s="3">
-        <v>66080000000</v>
-      </c>
-      <c r="Q125" s="5">
+      <c r="O125" s="4">
         <v>22000</v>
       </c>
-      <c r="R125" s="8">
+      <c r="P125" s="6">
         <v>0.67</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>172</v>
       </c>
@@ -7783,17 +7196,14 @@
       <c r="M126">
         <v>7.8</v>
       </c>
-      <c r="P126" s="3">
-        <v>42920000000</v>
-      </c>
-      <c r="Q126" s="5">
+      <c r="O126" s="4">
         <v>81100</v>
       </c>
-      <c r="R126" s="8">
+      <c r="P126" s="6">
         <v>0.85</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>168</v>
       </c>
@@ -7824,17 +7234,14 @@
       <c r="K127">
         <v>0.93</v>
       </c>
-      <c r="P127" s="3">
-        <v>47190000000</v>
-      </c>
-      <c r="Q127" s="5">
+      <c r="O127" s="4">
         <v>82400</v>
       </c>
-      <c r="R127" s="8">
+      <c r="P127" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>144</v>
       </c>
@@ -7877,20 +7284,14 @@
       <c r="N128">
         <v>1.8</v>
       </c>
-      <c r="O128">
-        <v>2005</v>
-      </c>
-      <c r="P128" s="3">
-        <v>22220000000</v>
-      </c>
-      <c r="Q128" s="5">
+      <c r="O128" s="4">
         <v>10800</v>
       </c>
-      <c r="R128" s="8">
+      <c r="P128" s="6">
         <v>0.59</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>51</v>
       </c>
@@ -7933,20 +7334,14 @@
       <c r="N129">
         <v>36.799999999999997</v>
       </c>
-      <c r="O129">
-        <v>2004</v>
-      </c>
-      <c r="P129" s="3">
-        <v>21760000000</v>
-      </c>
-      <c r="Q129" s="5">
+      <c r="O129" s="4">
         <v>1000</v>
       </c>
-      <c r="R129" s="7">
+      <c r="P129" s="5">
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>64</v>
       </c>
@@ -7989,20 +7384,14 @@
       <c r="N130">
         <v>13.8</v>
       </c>
-      <c r="O130">
-        <v>2010</v>
-      </c>
-      <c r="P130" s="3">
-        <v>14500000000</v>
-      </c>
-      <c r="Q130" s="5">
+      <c r="O130" s="4">
         <v>900</v>
       </c>
-      <c r="R130" s="7">
+      <c r="P130" s="5">
         <v>0.157</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>42</v>
       </c>
@@ -8045,20 +7434,14 @@
       <c r="N131">
         <v>12.9</v>
       </c>
-      <c r="O131">
-        <v>2006</v>
-      </c>
-      <c r="P131" s="3">
-        <v>506700000000</v>
-      </c>
-      <c r="Q131" s="5">
+      <c r="O131" s="4">
         <v>17200</v>
       </c>
-      <c r="R131" s="7">
+      <c r="P131" s="5">
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>175</v>
       </c>
@@ -8101,20 +7484,14 @@
       <c r="N132">
         <v>17.8</v>
       </c>
-      <c r="O132">
-        <v>2009</v>
-      </c>
-      <c r="P132" s="3">
-        <v>3106000000</v>
-      </c>
-      <c r="Q132" s="5">
+      <c r="O132" s="4">
         <v>9400</v>
       </c>
-      <c r="R132" s="7">
+      <c r="P132" s="5">
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>65</v>
       </c>
@@ -8157,20 +7534,14 @@
       <c r="N133">
         <v>27.9</v>
       </c>
-      <c r="O133">
-        <v>2006</v>
-      </c>
-      <c r="P133" s="3">
-        <v>18280000000</v>
-      </c>
-      <c r="Q133" s="5">
+      <c r="O133" s="4">
         <v>1100</v>
       </c>
-      <c r="R133" s="7">
+      <c r="P133" s="5">
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>174</v>
       </c>
@@ -8210,17 +7581,14 @@
       <c r="M134">
         <v>8.6999999999999993</v>
       </c>
-      <c r="P134" s="3">
-        <v>11450000000</v>
-      </c>
-      <c r="Q134" s="5">
+      <c r="O134" s="4">
         <v>27500</v>
       </c>
-      <c r="R134" s="8">
+      <c r="P134" s="6">
         <v>0.95</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>201</v>
       </c>
@@ -8257,17 +7625,14 @@
       <c r="M135">
         <v>18.100000000000001</v>
       </c>
-      <c r="P135" s="3">
-        <v>481800000</v>
-      </c>
-      <c r="Q135" s="5">
+      <c r="O135" s="4">
         <v>8800</v>
       </c>
-      <c r="R135" s="8">
+      <c r="P135" s="6">
         <v>0.72</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>132</v>
       </c>
@@ -8310,20 +7675,14 @@
       <c r="N136">
         <v>15.9</v>
       </c>
-      <c r="O136">
-        <v>2008</v>
-      </c>
-      <c r="P136" s="3">
-        <v>7824000000</v>
-      </c>
-      <c r="Q136" s="5">
+      <c r="O136" s="4">
         <v>2200</v>
       </c>
-      <c r="R136" s="7">
+      <c r="P136" s="5">
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>154</v>
       </c>
@@ -8363,17 +7722,14 @@
       <c r="M137">
         <v>6</v>
       </c>
-      <c r="P137" s="3">
-        <v>20530000000</v>
-      </c>
-      <c r="Q137" s="5">
+      <c r="O137" s="4">
         <v>15800</v>
       </c>
-      <c r="R137" s="7">
+      <c r="P137" s="5">
         <v>0.41799999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -8416,20 +7772,14 @@
       <c r="N138">
         <v>3.4</v>
       </c>
-      <c r="O138">
-        <v>2006</v>
-      </c>
-      <c r="P138" s="3">
-        <v>1788000000000</v>
-      </c>
-      <c r="Q138" s="5">
+      <c r="O138" s="4">
         <v>15600</v>
       </c>
-      <c r="R138" s="8">
+      <c r="P138" s="6">
         <v>0.78</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>191</v>
       </c>
@@ -8469,17 +7819,14 @@
       <c r="M139">
         <v>14.2</v>
       </c>
-      <c r="P139" s="3">
-        <v>766400000</v>
-      </c>
-      <c r="Q139" s="5">
+      <c r="O139" s="4">
         <v>7500</v>
       </c>
-      <c r="R139" s="8">
+      <c r="P139" s="6">
         <v>0.23</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>129</v>
       </c>
@@ -8522,20 +7869,14 @@
       <c r="N140">
         <v>3.2</v>
       </c>
-      <c r="O140">
-        <v>2005</v>
-      </c>
-      <c r="P140" s="3">
-        <v>12360000000</v>
-      </c>
-      <c r="Q140" s="5">
+      <c r="O140" s="4">
         <v>3500</v>
       </c>
-      <c r="R140" s="7">
+      <c r="P140" s="5">
         <v>0.47699999999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>216</v>
       </c>
@@ -8569,17 +7910,14 @@
       <c r="M141">
         <v>4.3</v>
       </c>
-      <c r="P141" s="3">
-        <v>5748000000</v>
-      </c>
-      <c r="Q141" s="5">
+      <c r="O141" s="4">
         <v>70700</v>
       </c>
-      <c r="R141" s="8">
+      <c r="P141" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -8622,20 +7960,14 @@
       <c r="N142">
         <v>5.3</v>
       </c>
-      <c r="O142">
-        <v>2005</v>
-      </c>
-      <c r="P142" s="3">
-        <v>15440000000</v>
-      </c>
-      <c r="Q142" s="5">
+      <c r="O142" s="4">
         <v>5500</v>
       </c>
-      <c r="R142" s="7">
+      <c r="P142" s="5">
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>166</v>
       </c>
@@ -8666,20 +7998,14 @@
       <c r="N143">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O143">
-        <v>2006</v>
-      </c>
-      <c r="P143" s="3">
-        <v>7461000000</v>
-      </c>
-      <c r="Q143" s="5">
+      <c r="O143" s="4">
         <v>12000</v>
       </c>
-      <c r="R143" s="8">
+      <c r="P143" s="6">
         <v>0.61</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>229</v>
       </c>
@@ -8710,17 +8036,14 @@
       <c r="K144">
         <v>1.28</v>
       </c>
-      <c r="P144" s="3">
-        <v>43780000</v>
-      </c>
-      <c r="Q144" s="5">
+      <c r="O144" s="4">
         <v>8500</v>
       </c>
-      <c r="R144" s="8">
+      <c r="P144" s="6">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>37</v>
       </c>
@@ -8763,20 +8086,14 @@
       <c r="N145">
         <v>3.1</v>
       </c>
-      <c r="O145">
-        <v>2011</v>
-      </c>
-      <c r="P145" s="3">
-        <v>174000000000</v>
-      </c>
-      <c r="Q145" s="5">
+      <c r="O145" s="4">
         <v>5400</v>
       </c>
-      <c r="R145" s="8">
+      <c r="P145" s="6">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>49</v>
       </c>
@@ -8819,20 +8136,14 @@
       <c r="N146">
         <v>18.3</v>
       </c>
-      <c r="O146">
-        <v>2008</v>
-      </c>
-      <c r="P146" s="3">
-        <v>26690000000</v>
-      </c>
-      <c r="Q146" s="5">
+      <c r="O146" s="4">
         <v>1200</v>
       </c>
-      <c r="R146" s="7">
+      <c r="P146" s="5">
         <v>0.312</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>141</v>
       </c>
@@ -8875,20 +8186,14 @@
       <c r="N147">
         <v>17.5</v>
       </c>
-      <c r="O147">
-        <v>2007</v>
-      </c>
-      <c r="P147" s="3">
-        <v>17030000000</v>
-      </c>
-      <c r="Q147" s="5">
+      <c r="O147" s="4">
         <v>7900</v>
       </c>
-      <c r="R147" s="7">
+      <c r="P147" s="5">
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>225</v>
       </c>
@@ -8928,20 +8233,14 @@
       <c r="N148">
         <v>4.8</v>
       </c>
-      <c r="O148">
-        <v>2007</v>
-      </c>
-      <c r="P148" s="3">
-        <v>60000000</v>
-      </c>
-      <c r="Q148" s="5">
+      <c r="O148" s="4">
         <v>5000</v>
       </c>
-      <c r="R148" s="8">
+      <c r="P148" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>40</v>
       </c>
@@ -8984,20 +8283,14 @@
       <c r="N149">
         <v>29.1</v>
       </c>
-      <c r="O149">
-        <v>2011</v>
-      </c>
-      <c r="P149" s="3">
-        <v>41220000000</v>
-      </c>
-      <c r="Q149" s="5">
+      <c r="O149" s="4">
         <v>1300</v>
       </c>
-      <c r="R149" s="8">
+      <c r="P149" s="6">
         <v>0.17</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>63</v>
       </c>
@@ -9037,17 +8330,14 @@
       <c r="M150">
         <v>11.9</v>
       </c>
-      <c r="P150" s="3">
-        <v>718600000000</v>
-      </c>
-      <c r="Q150" s="5">
+      <c r="O150" s="4">
         <v>42900</v>
       </c>
-      <c r="R150" s="8">
+      <c r="P150" s="6">
         <v>0.83</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>181</v>
       </c>
@@ -9078,17 +8368,14 @@
       <c r="K151">
         <v>2.02</v>
       </c>
-      <c r="P151" s="3">
-        <v>9280000000</v>
-      </c>
-      <c r="Q151" s="5">
+      <c r="O151" s="4">
         <v>37700</v>
       </c>
-      <c r="R151" s="8">
+      <c r="P151" s="6">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>124</v>
       </c>
@@ -9128,17 +8415,14 @@
       <c r="M152">
         <v>10.1</v>
       </c>
-      <c r="P152" s="3">
-        <v>134200000000</v>
-      </c>
-      <c r="Q152" s="5">
+      <c r="O152" s="4">
         <v>30200</v>
       </c>
-      <c r="R152" s="8">
+      <c r="P152" s="6">
         <v>0.86</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>108</v>
       </c>
@@ -9181,20 +8465,14 @@
       <c r="N153">
         <v>5.7</v>
       </c>
-      <c r="O153">
-        <v>2007</v>
-      </c>
-      <c r="P153" s="3">
-        <v>27100000000</v>
-      </c>
-      <c r="Q153" s="5">
+      <c r="O153" s="4">
         <v>4500</v>
       </c>
-      <c r="R153" s="8">
+      <c r="P153" s="6">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>62</v>
       </c>
@@ -9237,20 +8515,14 @@
       <c r="N154">
         <v>39.9</v>
       </c>
-      <c r="O154">
-        <v>2006</v>
-      </c>
-      <c r="P154" s="3">
-        <v>13340000000</v>
-      </c>
-      <c r="Q154" s="5">
+      <c r="O154" s="4">
         <v>800</v>
       </c>
-      <c r="R154" s="7">
+      <c r="P154" s="5">
         <v>0.17799999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -9293,20 +8565,14 @@
       <c r="N155">
         <v>26.7</v>
       </c>
-      <c r="O155">
-        <v>2008</v>
-      </c>
-      <c r="P155" s="3">
-        <v>455500000000</v>
-      </c>
-      <c r="Q155" s="5">
+      <c r="O155" s="4">
         <v>2800</v>
       </c>
-      <c r="R155" s="7">
+      <c r="P155" s="5">
         <v>0.496</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>235</v>
       </c>
@@ -9322,17 +8588,14 @@
       <c r="M156">
         <v>17.399999999999999</v>
       </c>
-      <c r="P156" s="3">
-        <v>10010000</v>
-      </c>
-      <c r="Q156" s="5">
+      <c r="O156" s="4">
         <v>5800</v>
       </c>
-      <c r="R156" s="8">
+      <c r="P156" s="6">
         <v>0.38</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>207</v>
       </c>
@@ -9363,17 +8626,14 @@
       <c r="K157">
         <v>2.0499999999999998</v>
       </c>
-      <c r="P157" s="3">
-        <v>733000000</v>
-      </c>
-      <c r="Q157" s="5">
+      <c r="O157" s="4">
         <v>13600</v>
       </c>
-      <c r="R157" s="8">
+      <c r="P157" s="6">
         <v>0.91</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>119</v>
       </c>
@@ -9413,17 +8673,14 @@
       <c r="M158">
         <v>9.5</v>
       </c>
-      <c r="P158" s="3">
-        <v>281700000000</v>
-      </c>
-      <c r="Q158" s="5">
+      <c r="O158" s="4">
         <v>55900</v>
       </c>
-      <c r="R158" s="8">
+      <c r="P158" s="6">
         <v>0.79</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>135</v>
       </c>
@@ -9466,20 +8723,14 @@
       <c r="N159">
         <v>8.6</v>
       </c>
-      <c r="O159">
-        <v>2009</v>
-      </c>
-      <c r="P159" s="3">
-        <v>91540000000</v>
-      </c>
-      <c r="Q159" s="5">
+      <c r="O159" s="4">
         <v>29600</v>
       </c>
-      <c r="R159" s="7">
+      <c r="P159" s="5">
         <v>0.73399999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -9522,20 +8773,14 @@
       <c r="N160">
         <v>30.9</v>
       </c>
-      <c r="O160">
-        <v>2011</v>
-      </c>
-      <c r="P160" s="3">
-        <v>523900000000</v>
-      </c>
-      <c r="Q160" s="5">
+      <c r="O160" s="4">
         <v>2900</v>
       </c>
-      <c r="R160" s="7">
+      <c r="P160" s="5">
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>218</v>
       </c>
@@ -9572,17 +8817,14 @@
       <c r="M161">
         <v>10.3</v>
       </c>
-      <c r="P161" s="3">
-        <v>221000000</v>
-      </c>
-      <c r="Q161" s="5">
+      <c r="O161" s="4">
         <v>10500</v>
       </c>
-      <c r="R161" s="8">
+      <c r="P161" s="6">
         <v>0.83</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>130</v>
       </c>
@@ -9625,20 +8867,14 @@
       <c r="N162">
         <v>3.9</v>
       </c>
-      <c r="O162">
-        <v>2008</v>
-      </c>
-      <c r="P162" s="3">
-        <v>58020000000</v>
-      </c>
-      <c r="Q162" s="5">
+      <c r="O162" s="4">
         <v>15900</v>
       </c>
-      <c r="R162" s="8">
+      <c r="P162" s="6">
         <v>0.75</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>104</v>
       </c>
@@ -9681,20 +8917,14 @@
       <c r="N163">
         <v>18.100000000000001</v>
       </c>
-      <c r="O163">
-        <v>2005</v>
-      </c>
-      <c r="P163" s="3">
-        <v>19410000000</v>
-      </c>
-      <c r="Q163" s="5">
+      <c r="O163" s="4">
         <v>2800</v>
       </c>
-      <c r="R163" s="8">
+      <c r="P163" s="6">
         <v>0.13</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>102</v>
       </c>
@@ -9737,20 +8967,14 @@
       <c r="N164">
         <v>3.4</v>
       </c>
-      <c r="O164">
-        <v>2005</v>
-      </c>
-      <c r="P164" s="3">
-        <v>41550000000</v>
-      </c>
-      <c r="Q164" s="5">
+      <c r="O164" s="4">
         <v>6200</v>
       </c>
-      <c r="R164" s="8">
+      <c r="P164" s="6">
         <v>0.61</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>41</v>
       </c>
@@ -9793,20 +9017,14 @@
       <c r="N165">
         <v>4.5</v>
       </c>
-      <c r="O165">
-        <v>2008</v>
-      </c>
-      <c r="P165" s="3">
-        <v>332000000000</v>
-      </c>
-      <c r="Q165" s="5">
+      <c r="O165" s="4">
         <v>10900</v>
       </c>
-      <c r="R165" s="8">
+      <c r="P165" s="6">
         <v>0.77</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -9849,20 +9067,14 @@
       <c r="N166">
         <v>20.7</v>
       </c>
-      <c r="O166">
-        <v>2008</v>
-      </c>
-      <c r="P166" s="3">
-        <v>431300000000</v>
-      </c>
-      <c r="Q166" s="5">
+      <c r="O166" s="4">
         <v>4500</v>
       </c>
-      <c r="R166" s="7">
+      <c r="P166" s="5">
         <v>0.48799999999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>32</v>
       </c>
@@ -9902,17 +9114,14 @@
       <c r="M167">
         <v>7.5</v>
       </c>
-      <c r="P167" s="3">
-        <v>814100000000</v>
-      </c>
-      <c r="Q167" s="5">
+      <c r="O167" s="4">
         <v>20900</v>
       </c>
-      <c r="R167" s="7">
+      <c r="P167" s="5">
         <v>0.60899999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>79</v>
       </c>
@@ -9952,17 +9161,14 @@
       <c r="M168">
         <v>11</v>
       </c>
-      <c r="P168" s="3">
-        <v>250600000000</v>
-      </c>
-      <c r="Q168" s="5">
+      <c r="O168" s="4">
         <v>23800</v>
       </c>
-      <c r="R168" s="8">
+      <c r="P168" s="6">
         <v>0.61</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>128</v>
       </c>
@@ -9996,17 +9202,14 @@
       <c r="K169">
         <v>1.64</v>
       </c>
-      <c r="P169" s="3">
-        <v>64840000000</v>
-      </c>
-      <c r="Q169" s="5">
+      <c r="O169" s="4">
         <v>16300</v>
       </c>
-      <c r="R169" s="8">
+      <c r="P169" s="6">
         <v>0.99</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>145</v>
       </c>
@@ -10046,17 +9249,14 @@
       <c r="M170">
         <v>1.8</v>
       </c>
-      <c r="P170" s="3">
-        <v>191000000000</v>
-      </c>
-      <c r="Q170" s="5">
+      <c r="O170" s="4">
         <v>103900</v>
       </c>
-      <c r="R170" s="7">
+      <c r="P170" s="5">
         <v>0.98799999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>55</v>
       </c>
@@ -10099,20 +9299,14 @@
       <c r="N171">
         <v>3.5</v>
       </c>
-      <c r="O171">
-        <v>2002</v>
-      </c>
-      <c r="P171" s="3">
-        <v>277900000000</v>
-      </c>
-      <c r="Q171" s="5">
+      <c r="O171" s="4">
         <v>13000</v>
       </c>
-      <c r="R171" s="7">
+      <c r="P171" s="5">
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -10152,17 +9346,14 @@
       <c r="M172">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P172" s="3">
-        <v>2555000000000</v>
-      </c>
-      <c r="Q172" s="5">
+      <c r="O172" s="4">
         <v>18000</v>
       </c>
-      <c r="R172" s="7">
+      <c r="P172" s="5">
         <v>0.73799999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>72</v>
       </c>
@@ -10205,20 +9396,14 @@
       <c r="N173">
         <v>11.7</v>
       </c>
-      <c r="O173">
-        <v>2011</v>
-      </c>
-      <c r="P173" s="3">
-        <v>15740000000</v>
-      </c>
-      <c r="Q173" s="5">
+      <c r="O173" s="4">
         <v>1500</v>
       </c>
-      <c r="R173" s="7">
+      <c r="P173" s="5">
         <v>0.191</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>226</v>
       </c>
@@ -10249,17 +9434,14 @@
       <c r="K174">
         <v>1.57</v>
       </c>
-      <c r="P174" s="3">
-        <v>31100000</v>
-      </c>
-      <c r="Q174" s="5">
+      <c r="O174" s="4">
         <v>7800</v>
       </c>
-      <c r="R174" s="7">
+      <c r="P174" s="5">
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>208</v>
       </c>
@@ -10296,17 +9478,14 @@
       <c r="M175">
         <v>6.7</v>
       </c>
-      <c r="P175" s="3">
-        <v>946300000</v>
-      </c>
-      <c r="Q175" s="5">
+      <c r="O175" s="4">
         <v>16500</v>
       </c>
-      <c r="R175" s="8">
+      <c r="P175" s="6">
         <v>0.32</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>185</v>
       </c>
@@ -10346,17 +9525,14 @@
       <c r="M176">
         <v>8.6999999999999993</v>
       </c>
-      <c r="P176" s="3">
-        <v>2233000000</v>
-      </c>
-      <c r="Q176" s="5">
+      <c r="O176" s="4">
         <v>13300</v>
       </c>
-      <c r="R176" s="8">
+      <c r="P176" s="6">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>228</v>
       </c>
@@ -10387,17 +9563,14 @@
       <c r="K177">
         <v>1.55</v>
       </c>
-      <c r="P177" s="3">
-        <v>215300000</v>
-      </c>
-      <c r="Q177" s="5">
+      <c r="O177" s="4">
         <v>34900</v>
       </c>
-      <c r="R177" s="8">
+      <c r="P177" s="6">
         <v>0.91</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>194</v>
       </c>
@@ -10437,17 +9610,14 @@
       <c r="M178">
         <v>4.5</v>
       </c>
-      <c r="P178" s="3">
-        <v>1312000000</v>
-      </c>
-      <c r="Q178" s="5">
+      <c r="O178" s="4">
         <v>12000</v>
       </c>
-      <c r="R178" s="8">
+      <c r="P178" s="6">
         <v>0.49</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>183</v>
       </c>
@@ -10487,17 +9657,14 @@
       <c r="M179">
         <v>6.5</v>
       </c>
-      <c r="P179" s="3">
-        <v>1146000000</v>
-      </c>
-      <c r="Q179" s="5">
+      <c r="O179" s="4">
         <v>6300</v>
       </c>
-      <c r="R179" s="8">
+      <c r="P179" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>213</v>
       </c>
@@ -10531,17 +9698,14 @@
       <c r="M180">
         <v>7.1</v>
       </c>
-      <c r="P180" s="3">
-        <v>1371000000</v>
-      </c>
-      <c r="Q180" s="5">
+      <c r="O180" s="4">
         <v>36200</v>
       </c>
-      <c r="R180" s="8">
+      <c r="P180" s="6">
         <v>0.94</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>184</v>
       </c>
@@ -10584,20 +9748,14 @@
       <c r="N181">
         <v>14.4</v>
       </c>
-      <c r="O181">
-        <v>2009</v>
-      </c>
-      <c r="P181" s="3">
-        <v>408600000</v>
-      </c>
-      <c r="Q181" s="5">
+      <c r="O181" s="4">
         <v>2400</v>
       </c>
-      <c r="R181" s="7">
+      <c r="P181" s="5">
         <v>0.627</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>45</v>
       </c>
@@ -10640,20 +9798,14 @@
       <c r="N182">
         <v>5.3</v>
       </c>
-      <c r="O182">
-        <v>2005</v>
-      </c>
-      <c r="P182" s="3">
-        <v>921700000000</v>
-      </c>
-      <c r="Q182" s="5">
+      <c r="O182" s="4">
         <v>31800</v>
       </c>
-      <c r="R182" s="7">
+      <c r="P182" s="5">
         <v>0.82299999999999995</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>70</v>
       </c>
@@ -10696,20 +9848,14 @@
       <c r="N183">
         <v>19.2</v>
       </c>
-      <c r="O183">
-        <v>2011</v>
-      </c>
-      <c r="P183" s="3">
-        <v>27010000000</v>
-      </c>
-      <c r="Q183" s="5">
+      <c r="O183" s="4">
         <v>2100</v>
       </c>
-      <c r="R183" s="7">
+      <c r="P183" s="5">
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>97</v>
       </c>
@@ -10752,20 +9898,14 @@
       <c r="N184">
         <v>1.8</v>
       </c>
-      <c r="O184">
-        <v>2006</v>
-      </c>
-      <c r="P184" s="3">
-        <v>80020000000</v>
-      </c>
-      <c r="Q184" s="5">
+      <c r="O184" s="4">
         <v>10600</v>
       </c>
-      <c r="R184" s="8">
+      <c r="P184" s="6">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>196</v>
       </c>
@@ -10802,17 +9942,14 @@
       <c r="M185">
         <v>3.4</v>
       </c>
-      <c r="P185" s="3">
-        <v>2355000000</v>
-      </c>
-      <c r="Q185" s="5">
+      <c r="O185" s="4">
         <v>25600</v>
       </c>
-      <c r="R185" s="7">
+      <c r="P185" s="5">
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>109</v>
       </c>
@@ -10855,20 +9992,14 @@
       <c r="N186">
         <v>21.3</v>
       </c>
-      <c r="O186">
-        <v>2008</v>
-      </c>
-      <c r="P186" s="3">
-        <v>8412000000</v>
-      </c>
-      <c r="Q186" s="5">
+      <c r="O186" s="4">
         <v>1400</v>
       </c>
-      <c r="R186" s="7">
+      <c r="P186" s="5">
         <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>114</v>
       </c>
@@ -10911,20 +10042,14 @@
       <c r="N187">
         <v>3.3</v>
       </c>
-      <c r="O187">
-        <v>2000</v>
-      </c>
-      <c r="P187" s="3">
-        <v>331900000000</v>
-      </c>
-      <c r="Q187" s="5">
+      <c r="O187" s="4">
         <v>61400</v>
       </c>
-      <c r="R187" s="8">
+      <c r="P187" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>211</v>
       </c>
@@ -10955,14 +10080,11 @@
       <c r="K188">
         <v>2.09</v>
       </c>
-      <c r="P188" s="3">
-        <v>798300000</v>
-      </c>
-      <c r="Q188" s="5">
+      <c r="O188" s="4">
         <v>15400</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>112</v>
       </c>
@@ -11002,17 +10124,14 @@
       <c r="M189">
         <v>8.8000000000000007</v>
       </c>
-      <c r="P189" s="3">
-        <v>134100000000</v>
-      </c>
-      <c r="Q189" s="5">
+      <c r="O189" s="4">
         <v>24600</v>
       </c>
-      <c r="R189" s="7">
+      <c r="P189" s="5">
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>146</v>
       </c>
@@ -11052,17 +10171,14 @@
       <c r="M190">
         <v>9.4</v>
       </c>
-      <c r="P190" s="3">
-        <v>58910000000</v>
-      </c>
-      <c r="Q190" s="5">
+      <c r="O190" s="4">
         <v>28700</v>
       </c>
-      <c r="R190" s="8">
+      <c r="P190" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>167</v>
       </c>
@@ -11105,20 +10221,14 @@
       <c r="N191">
         <v>11.5</v>
       </c>
-      <c r="O191">
-        <v>2007</v>
-      </c>
-      <c r="P191" s="3">
-        <v>1922000000</v>
-      </c>
-      <c r="Q191" s="5">
+      <c r="O191" s="4">
         <v>3400</v>
       </c>
-      <c r="R191" s="8">
+      <c r="P191" s="6">
         <v>0.19</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>83</v>
       </c>
@@ -11158,20 +10268,14 @@
       <c r="N192">
         <v>32.799999999999997</v>
       </c>
-      <c r="O192">
-        <v>2006</v>
-      </c>
-      <c r="P192" s="3">
-        <v>5896000000</v>
-      </c>
-      <c r="Q192" s="5">
+      <c r="O192" s="4">
         <v>600</v>
       </c>
-      <c r="R192" s="7">
+      <c r="P192" s="5">
         <v>0.377</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>25</v>
       </c>
@@ -11214,20 +10318,14 @@
       <c r="N193">
         <v>11.6</v>
       </c>
-      <c r="O193">
-        <v>2005</v>
-      </c>
-      <c r="P193" s="3">
-        <v>592000000000</v>
-      </c>
-      <c r="Q193" s="5">
+      <c r="O193" s="4">
         <v>11600</v>
       </c>
-      <c r="R193" s="8">
+      <c r="P193" s="6">
         <v>0.62</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>75</v>
       </c>
@@ -11243,17 +10341,14 @@
       <c r="K194">
         <v>5.54</v>
       </c>
-      <c r="P194" s="3">
-        <v>10620000000</v>
-      </c>
-      <c r="Q194" s="5">
+      <c r="O194" s="4">
         <v>1000</v>
       </c>
-      <c r="R194" s="8">
+      <c r="P194" s="6">
         <v>0.18</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>27</v>
       </c>
@@ -11293,17 +10388,14 @@
       <c r="M195">
         <v>9.5</v>
       </c>
-      <c r="P195" s="3">
-        <v>1434000000000</v>
-      </c>
-      <c r="Q195" s="5">
+      <c r="O195" s="4">
         <v>31100</v>
       </c>
-      <c r="R195" s="8">
+      <c r="P195" s="6">
         <v>0.77</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>56</v>
       </c>
@@ -11346,20 +10438,14 @@
       <c r="N196">
         <v>21.6</v>
       </c>
-      <c r="O196">
-        <v>2009</v>
-      </c>
-      <c r="P196" s="3">
-        <v>128400000000</v>
-      </c>
-      <c r="Q196" s="5">
+      <c r="O196" s="4">
         <v>6200</v>
       </c>
-      <c r="R196" s="7">
+      <c r="P196" s="5">
         <v>0.151</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>34</v>
       </c>
@@ -11402,20 +10488,14 @@
       <c r="N197">
         <v>31.7</v>
       </c>
-      <c r="O197">
-        <v>2006</v>
-      </c>
-      <c r="P197" s="3">
-        <v>86670000000</v>
-      </c>
-      <c r="Q197" s="5">
+      <c r="O197" s="4">
         <v>2600</v>
       </c>
-      <c r="R197" s="7">
+      <c r="P197" s="5">
         <v>0.33200000000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>169</v>
       </c>
@@ -11458,20 +10538,14 @@
       <c r="N198">
         <v>7.5</v>
       </c>
-      <c r="O198">
-        <v>2006</v>
-      </c>
-      <c r="P198" s="3">
-        <v>6874000000</v>
-      </c>
-      <c r="Q198" s="5">
+      <c r="O198" s="4">
         <v>12600</v>
       </c>
-      <c r="R198" s="8">
+      <c r="P198" s="6">
         <v>0.69</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>153</v>
       </c>
@@ -11514,20 +10588,14 @@
       <c r="N199">
         <v>6.1</v>
       </c>
-      <c r="O199">
-        <v>2007</v>
-      </c>
-      <c r="P199" s="3">
-        <v>6345000000</v>
-      </c>
-      <c r="Q199" s="5">
+      <c r="O199" s="4">
         <v>5900</v>
       </c>
-      <c r="R199" s="7">
+      <c r="P199" s="5">
         <v>0.21199999999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>91</v>
       </c>
@@ -11567,17 +10635,14 @@
       <c r="M200">
         <v>9.6</v>
       </c>
-      <c r="P200" s="3">
-        <v>399400000000</v>
-      </c>
-      <c r="Q200" s="5">
+      <c r="O200" s="4">
         <v>41900</v>
       </c>
-      <c r="R200" s="8">
+      <c r="P200" s="6">
         <v>0.85</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>94</v>
       </c>
@@ -11617,17 +10682,14 @@
       <c r="M201">
         <v>11.5</v>
       </c>
-      <c r="P201" s="3">
-        <v>369400000000</v>
-      </c>
-      <c r="Q201" s="5">
+      <c r="O201" s="4">
         <v>46200</v>
       </c>
-      <c r="R201" s="8">
+      <c r="P201" s="6">
         <v>0.74</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>52</v>
       </c>
@@ -11670,20 +10732,14 @@
       <c r="N202">
         <v>10.1</v>
       </c>
-      <c r="O202">
-        <v>2009</v>
-      </c>
-      <c r="P202" s="3">
-        <v>107600000000</v>
-      </c>
-      <c r="Q202" s="5">
+      <c r="O202" s="4">
         <v>5100</v>
       </c>
-      <c r="R202" s="7">
+      <c r="P202" s="5">
         <v>0.56100000000000005</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>50</v>
       </c>
@@ -11714,14 +10770,11 @@
       <c r="K203">
         <v>1.1100000000000001</v>
       </c>
-      <c r="P203" s="3">
-        <v>918300000000</v>
-      </c>
-      <c r="Q203" s="5">
+      <c r="O203" s="4">
         <v>39400</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>95</v>
       </c>
@@ -11764,20 +10817,14 @@
       <c r="N204">
         <v>15</v>
       </c>
-      <c r="O204">
-        <v>2005</v>
-      </c>
-      <c r="P204" s="3">
-        <v>18040000000</v>
-      </c>
-      <c r="Q204" s="5">
+      <c r="O204" s="4">
         <v>2300</v>
       </c>
-      <c r="R204" s="7">
+      <c r="P204" s="5">
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>26</v>
       </c>
@@ -11820,20 +10867,14 @@
       <c r="N205">
         <v>16.7</v>
       </c>
-      <c r="O205">
-        <v>2005</v>
-      </c>
-      <c r="P205" s="3">
-        <v>75070000000</v>
-      </c>
-      <c r="Q205" s="5">
+      <c r="O205" s="4">
         <v>1600</v>
       </c>
-      <c r="R205" s="7">
+      <c r="P205" s="5">
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>19</v>
       </c>
@@ -11876,20 +10917,14 @@
       <c r="N206">
         <v>7</v>
       </c>
-      <c r="O206">
-        <v>2006</v>
-      </c>
-      <c r="P206" s="3">
-        <v>662600000000</v>
-      </c>
-      <c r="Q206" s="5">
+      <c r="O206" s="4">
         <v>10300</v>
       </c>
-      <c r="R206" s="7">
+      <c r="P206" s="5">
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>158</v>
       </c>
@@ -11932,20 +10967,14 @@
       <c r="N207">
         <v>45.3</v>
       </c>
-      <c r="O207">
-        <v>2010</v>
-      </c>
-      <c r="P207" s="3">
-        <v>11230000000</v>
-      </c>
-      <c r="Q207" s="5">
+      <c r="O207" s="4">
         <v>10000</v>
       </c>
-      <c r="R207" s="7">
+      <c r="P207" s="5">
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>99</v>
       </c>
@@ -11988,20 +11017,14 @@
       <c r="N208">
         <v>20.5</v>
       </c>
-      <c r="O208">
-        <v>2008</v>
-      </c>
-      <c r="P208" s="3">
-        <v>7024000000</v>
-      </c>
-      <c r="Q208" s="5">
+      <c r="O208" s="4">
         <v>1100</v>
       </c>
-      <c r="R208" s="8">
+      <c r="P208" s="6">
         <v>0.38</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>234</v>
       </c>
@@ -12017,17 +11040,14 @@
       <c r="L209">
         <v>63.4</v>
       </c>
-      <c r="P209" s="3">
-        <v>1500000</v>
-      </c>
-      <c r="Q209" s="5">
+      <c r="O209" s="4">
         <v>1000</v>
       </c>
-      <c r="R209" s="8">
+      <c r="P209" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>190</v>
       </c>
@@ -12067,17 +11087,14 @@
       <c r="M210">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P210" s="3">
-        <v>801000000</v>
-      </c>
-      <c r="Q210" s="5">
+      <c r="O210" s="4">
         <v>7700</v>
       </c>
-      <c r="R210" s="8">
+      <c r="P210" s="6">
         <v>0.23</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>157</v>
       </c>
@@ -12120,20 +11137,14 @@
       <c r="N211">
         <v>4.4000000000000004</v>
       </c>
-      <c r="O211">
-        <v>2000</v>
-      </c>
-      <c r="P211" s="3">
-        <v>27140000000</v>
-      </c>
-      <c r="Q211" s="5">
+      <c r="O211" s="4">
         <v>20400</v>
       </c>
-      <c r="R211" s="8">
+      <c r="P211" s="6">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>78</v>
       </c>
@@ -12176,20 +11187,14 @@
       <c r="N212">
         <v>3.3</v>
       </c>
-      <c r="O212">
-        <v>2006</v>
-      </c>
-      <c r="P212" s="3">
-        <v>107100000000</v>
-      </c>
-      <c r="Q212" s="5">
+      <c r="O212" s="4">
         <v>9900</v>
       </c>
-      <c r="R212" s="7">
+      <c r="P212" s="5">
         <v>0.66300000000000003</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>16</v>
       </c>
@@ -12232,20 +11237,14 @@
       <c r="N213">
         <v>3.5</v>
       </c>
-      <c r="O213">
-        <v>2004</v>
-      </c>
-      <c r="P213" s="3">
-        <v>1142000000000</v>
-      </c>
-      <c r="Q213" s="5">
+      <c r="O213" s="4">
         <v>15200</v>
       </c>
-      <c r="R213" s="7">
+      <c r="P213" s="5">
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>117</v>
       </c>
@@ -12285,17 +11284,14 @@
       <c r="M214">
         <v>2.5</v>
       </c>
-      <c r="P214" s="3">
-        <v>49750000000</v>
-      </c>
-      <c r="Q214" s="5">
+      <c r="O214" s="4">
         <v>8900</v>
       </c>
-      <c r="R214" s="7">
+      <c r="P214" s="5">
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>210</v>
       </c>
@@ -12326,17 +11322,14 @@
       <c r="K215">
         <v>1.7</v>
       </c>
-      <c r="P215" s="3">
-        <v>632000000</v>
-      </c>
-      <c r="Q215" s="5">
+      <c r="O215" s="4">
         <v>29100</v>
       </c>
-      <c r="R215" s="8">
+      <c r="P215" s="6">
         <v>0.93</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>223</v>
       </c>
@@ -12373,20 +11366,14 @@
       <c r="N216">
         <v>1.6</v>
       </c>
-      <c r="O216">
-        <v>2007</v>
-      </c>
-      <c r="P216" s="3">
-        <v>37610000</v>
-      </c>
-      <c r="Q216" s="5">
+      <c r="O216" s="4">
         <v>3400</v>
       </c>
-      <c r="R216" s="8">
+      <c r="P216" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>35</v>
       </c>
@@ -12429,20 +11416,14 @@
       <c r="N217">
         <v>16.399999999999999</v>
       </c>
-      <c r="O217">
-        <v>2006</v>
-      </c>
-      <c r="P217" s="3">
-        <v>51270000000</v>
-      </c>
-      <c r="Q217" s="5">
+      <c r="O217" s="4">
         <v>1400</v>
       </c>
-      <c r="R217" s="7">
+      <c r="P217" s="5">
         <v>0.156</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>29</v>
       </c>
@@ -12485,20 +11466,14 @@
       <c r="N218">
         <v>0.9</v>
       </c>
-      <c r="O218">
-        <v>2002</v>
-      </c>
-      <c r="P218" s="3">
-        <v>340700000000</v>
-      </c>
-      <c r="Q218" s="5">
+      <c r="O218" s="4">
         <v>7500</v>
       </c>
-      <c r="R218" s="7">
+      <c r="P218" s="5">
         <v>0.68899999999999995</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>113</v>
       </c>
@@ -12538,17 +11513,14 @@
       <c r="M219">
         <v>3.7</v>
       </c>
-      <c r="P219" s="3">
-        <v>275800000000</v>
-      </c>
-      <c r="Q219" s="5">
+      <c r="O219" s="4">
         <v>49800</v>
       </c>
-      <c r="R219" s="7">
+      <c r="P219" s="5">
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>21</v>
       </c>
@@ -12588,17 +11560,14 @@
       <c r="M220">
         <v>9.6</v>
       </c>
-      <c r="P220" s="3">
-        <v>2375000000000</v>
-      </c>
-      <c r="Q220" s="5">
+      <c r="O220" s="4">
         <v>37500</v>
       </c>
-      <c r="R220" s="8">
+      <c r="P220" s="6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>2</v>
       </c>
@@ -12641,20 +11610,14 @@
       <c r="N221">
         <v>1.3</v>
       </c>
-      <c r="O221">
-        <v>2004</v>
-      </c>
-      <c r="P221" s="3">
-        <v>15940000000000</v>
-      </c>
-      <c r="Q221" s="5">
+      <c r="O221" s="4">
         <v>50700</v>
       </c>
-      <c r="R221" s="8">
+      <c r="P221" s="6">
         <v>0.82</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>133</v>
       </c>
@@ -12697,20 +11660,14 @@
       <c r="N222">
         <v>6</v>
       </c>
-      <c r="O222">
-        <v>2004</v>
-      </c>
-      <c r="P222" s="3">
-        <v>54670000000</v>
-      </c>
-      <c r="Q222" s="5">
+      <c r="O222" s="4">
         <v>16200</v>
       </c>
-      <c r="R222" s="8">
+      <c r="P222" s="6">
         <v>0.92</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>43</v>
       </c>
@@ -12753,20 +11710,14 @@
       <c r="N223">
         <v>4.4000000000000004</v>
       </c>
-      <c r="O223">
-        <v>2006</v>
-      </c>
-      <c r="P223" s="3">
-        <v>106400000000</v>
-      </c>
-      <c r="Q223" s="5">
+      <c r="O223" s="4">
         <v>3600</v>
       </c>
-      <c r="R223" s="7">
+      <c r="P223" s="5">
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>182</v>
       </c>
@@ -12809,20 +11760,14 @@
       <c r="N224">
         <v>11.7</v>
       </c>
-      <c r="O224">
-        <v>2007</v>
-      </c>
-      <c r="P224" s="3">
-        <v>1251000000</v>
-      </c>
-      <c r="Q224" s="5">
+      <c r="O224" s="4">
         <v>5000</v>
       </c>
-      <c r="R224" s="8">
+      <c r="P224" s="6">
         <v>0.26</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>44</v>
       </c>
@@ -12865,20 +11810,14 @@
       <c r="N225">
         <v>3.7</v>
       </c>
-      <c r="O225">
-        <v>2007</v>
-      </c>
-      <c r="P225" s="3">
-        <v>408500000000</v>
-      </c>
-      <c r="Q225" s="5">
+      <c r="O225" s="4">
         <v>13800</v>
       </c>
-      <c r="R225" s="8">
+      <c r="P225" s="6">
         <v>0.93</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -12921,20 +11860,14 @@
       <c r="N226">
         <v>20.2</v>
       </c>
-      <c r="O226">
-        <v>2008</v>
-      </c>
-      <c r="P226" s="3">
-        <v>325900000000</v>
-      </c>
-      <c r="Q226" s="5">
+      <c r="O226" s="4">
         <v>3600</v>
       </c>
-      <c r="R226" s="8">
+      <c r="P226" s="6">
         <v>0.31</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>192</v>
       </c>
@@ -12965,17 +11898,14 @@
       <c r="K227">
         <v>1.77</v>
       </c>
-      <c r="P227" s="3">
-        <v>1577000000</v>
-      </c>
-      <c r="Q227" s="5">
+      <c r="O227" s="4">
         <v>14500</v>
       </c>
-      <c r="R227" s="8">
+      <c r="P227" s="6">
         <v>0.95</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>222</v>
       </c>
@@ -13006,17 +11936,14 @@
       <c r="K228">
         <v>1.77</v>
       </c>
-      <c r="P228" s="3">
-        <v>60000000</v>
-      </c>
-      <c r="Q228" s="5">
+      <c r="O228" s="4">
         <v>3800</v>
       </c>
-      <c r="R228" s="8">
+      <c r="P228" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>140</v>
       </c>
@@ -13053,20 +11980,14 @@
       <c r="N229">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O229">
-        <v>2007</v>
-      </c>
-      <c r="P229" s="3">
-        <v>8022000000</v>
-      </c>
-      <c r="Q229" s="5">
+      <c r="O229" s="4">
         <v>2900</v>
       </c>
-      <c r="R229" s="7">
+      <c r="P229" s="5">
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>170</v>
       </c>
@@ -13094,17 +12015,14 @@
       <c r="K230">
         <v>4.1500000000000004</v>
       </c>
-      <c r="P230" s="3">
-        <v>906500000</v>
-      </c>
-      <c r="Q230" s="5">
+      <c r="O230" s="4">
         <v>2500</v>
       </c>
-      <c r="R230" s="8">
+      <c r="P230" s="6">
         <v>0.82</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>46</v>
       </c>
@@ -13147,20 +12065,14 @@
       <c r="N231">
         <v>43.1</v>
       </c>
-      <c r="O231">
-        <v>2003</v>
-      </c>
-      <c r="P231" s="3">
-        <v>60060000000</v>
-      </c>
-      <c r="Q231" s="5">
+      <c r="O231" s="4">
         <v>2300</v>
       </c>
-      <c r="R231" s="7">
+      <c r="P231" s="5">
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>69</v>
       </c>
@@ -13203,20 +12115,14 @@
       <c r="N232">
         <v>14.9</v>
       </c>
-      <c r="O232">
-        <v>2007</v>
-      </c>
-      <c r="P232" s="3">
-        <v>24360000000</v>
-      </c>
-      <c r="Q232" s="5">
+      <c r="O232" s="4">
         <v>1700</v>
       </c>
-      <c r="R232" s="7">
+      <c r="P232" s="5">
         <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>71</v>
       </c>
@@ -13256,20 +12162,14 @@
       <c r="N233">
         <v>10.1</v>
       </c>
-      <c r="O233">
-        <v>2011</v>
-      </c>
-      <c r="P233" s="3">
-        <v>7366000000</v>
-      </c>
-      <c r="Q233" s="5">
+      <c r="O233" s="4">
         <v>600</v>
       </c>
-      <c r="R233" s="7">
+      <c r="P233" s="5">
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>221</v>
       </c>
@@ -13280,7 +12180,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>258</v>
       </c>
@@ -13291,7 +12191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>253</v>
       </c>
@@ -13302,7 +12202,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>248</v>
       </c>
@@ -13313,7 +12213,7 @@
         <v>54400</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>233</v>
       </c>
@@ -13327,7 +12227,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>256</v>
       </c>
@@ -13338,7 +12238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>237</v>
       </c>
@@ -13352,7 +12252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>260</v>
       </c>
@@ -13363,7 +12263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>220</v>
       </c>
@@ -13374,7 +12274,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>230</v>
       </c>
@@ -13388,7 +12288,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>252</v>
       </c>
@@ -13399,7 +12299,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>250</v>
       </c>
@@ -13410,7 +12310,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>236</v>
       </c>
@@ -13424,7 +12324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>261</v>
       </c>
@@ -13435,7 +12335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>251</v>
       </c>
@@ -13446,7 +12346,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>149</v>
       </c>
@@ -13457,7 +12357,7 @@
         <v>10887</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>257</v>
       </c>
@@ -13468,7 +12368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>231</v>
       </c>
@@ -13482,7 +12382,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>238</v>
       </c>
@@ -13496,7 +12396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>227</v>
       </c>
@@ -13507,7 +12407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>215</v>
       </c>
@@ -13518,7 +12418,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>249</v>
       </c>
@@ -13529,7 +12429,7 @@
         <v>3903</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>259</v>
       </c>
@@ -13540,7 +12440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>232</v>
       </c>
@@ -13554,7 +12454,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>254</v>
       </c>
@@ -13565,7 +12465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>255</v>
       </c>
@@ -13577,7 +12477,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:U232">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:S232">
     <sortCondition ref="A3"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
